--- a/MySQL/주문서/주문서-테이블명세.xlsx
+++ b/MySQL/주문서/주문서-테이블명세.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\DBMS\MySQL\주문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170F041E-F8C9-42EA-9143-CB5BA8E4C421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E203F27D-4922-4BF1-9469-03B1D1EAFC8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오라클형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>변경이력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,6 +112,110 @@
   </si>
   <si>
     <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시_주문원장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_temp_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문원장을 정규화 하기 위하여 원본 데이터를 import 할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>거래일자</t>
+  </si>
+  <si>
+    <t>고객코드</t>
+  </si>
+  <si>
+    <t>고객명</t>
+  </si>
+  <si>
+    <t>연락처</t>
+  </si>
+  <si>
+    <t>상품코드1</t>
+  </si>
+  <si>
+    <t>상품코드2</t>
+  </si>
+  <si>
+    <t>상품코드3</t>
+  </si>
+  <si>
+    <t>문자열(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ccode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ctel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_pcode1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_pcode2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_pcode3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,6 +722,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -651,33 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1679,19 +1779,21 @@
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1700,33 +1802,37 @@
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1742,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -1767,10 +1873,18 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1782,10 +1896,18 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1797,10 +1919,18 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1812,10 +1942,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1827,10 +1965,18 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1842,10 +1988,18 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1857,10 +2011,18 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1872,10 +2034,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2005,146 +2175,146 @@
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31" t="s">
+      <c r="C26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="E26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
